--- a/22/kompege/16267.xlsx
+++ b/22/kompege/16267.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\картинки\КАртинки к курсам\группа\открытый курс\2024\Интенсив\Вариант 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmprojects\ege_bk\22\kompege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F504F18-9778-47B2-9514-E6AD9ECE5D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51FDE2C-0468-4199-B9BA-E835E12131D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2775" windowWidth="23115" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27570" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,23 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>ID процесса</t>
-  </si>
-  <si>
-    <t>Время выполнения процесса (мс)</t>
-  </si>
-  <si>
-    <t>ID поставщиков</t>
-  </si>
-  <si>
-    <t>1;2</t>
-  </si>
-  <si>
-    <t>7;8</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,12 +51,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,16 +107,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -372,166 +412,3496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:BV14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AB14:AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="74" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
         <v>2</v>
       </c>
+      <c r="L1">
+        <v>3</v>
+      </c>
+      <c r="M1">
+        <v>4</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+      <c r="O1">
+        <v>6</v>
+      </c>
+      <c r="P1">
+        <v>7</v>
+      </c>
+      <c r="Q1">
+        <v>8</v>
+      </c>
+      <c r="R1">
+        <v>9</v>
+      </c>
+      <c r="S1">
+        <v>10</v>
+      </c>
+      <c r="T1">
+        <v>11</v>
+      </c>
+      <c r="U1">
+        <v>12</v>
+      </c>
+      <c r="V1">
+        <v>13</v>
+      </c>
+      <c r="W1">
+        <v>14</v>
+      </c>
+      <c r="X1">
+        <v>15</v>
+      </c>
+      <c r="Y1">
+        <v>16</v>
+      </c>
+      <c r="Z1">
+        <v>17</v>
+      </c>
+      <c r="AA1">
+        <v>18</v>
+      </c>
+      <c r="AB1">
+        <v>19</v>
+      </c>
+      <c r="AC1">
+        <v>20</v>
+      </c>
+      <c r="AD1">
+        <v>21</v>
+      </c>
+      <c r="AE1">
+        <v>22</v>
+      </c>
+      <c r="AF1">
+        <v>23</v>
+      </c>
+      <c r="AG1">
+        <v>24</v>
+      </c>
+      <c r="AH1">
+        <v>25</v>
+      </c>
+      <c r="AI1">
+        <v>26</v>
+      </c>
+      <c r="AJ1">
+        <v>27</v>
+      </c>
+      <c r="AK1">
+        <v>28</v>
+      </c>
+      <c r="AL1">
+        <v>29</v>
+      </c>
+      <c r="AM1">
+        <v>30</v>
+      </c>
+      <c r="AN1">
+        <v>31</v>
+      </c>
+      <c r="AO1">
+        <v>32</v>
+      </c>
+      <c r="AP1">
+        <v>33</v>
+      </c>
+      <c r="AQ1">
+        <v>34</v>
+      </c>
+      <c r="AR1">
+        <v>35</v>
+      </c>
+      <c r="AS1">
+        <v>36</v>
+      </c>
+      <c r="AT1">
+        <v>37</v>
+      </c>
+      <c r="AU1">
+        <v>38</v>
+      </c>
+      <c r="AV1">
+        <v>39</v>
+      </c>
+      <c r="AW1">
+        <v>40</v>
+      </c>
+      <c r="AX1">
+        <v>41</v>
+      </c>
+      <c r="AY1">
+        <v>42</v>
+      </c>
+      <c r="AZ1">
+        <v>43</v>
+      </c>
+      <c r="BA1">
+        <v>44</v>
+      </c>
+      <c r="BB1">
+        <v>45</v>
+      </c>
+      <c r="BC1">
+        <v>46</v>
+      </c>
+      <c r="BD1">
+        <v>47</v>
+      </c>
+      <c r="BE1">
+        <v>48</v>
+      </c>
+      <c r="BF1">
+        <v>49</v>
+      </c>
+      <c r="BG1">
+        <v>50</v>
+      </c>
+      <c r="BH1">
+        <v>51</v>
+      </c>
+      <c r="BI1">
+        <v>52</v>
+      </c>
+      <c r="BJ1">
+        <v>53</v>
+      </c>
+      <c r="BK1">
+        <v>54</v>
+      </c>
+      <c r="BL1">
+        <v>55</v>
+      </c>
+      <c r="BM1">
+        <v>56</v>
+      </c>
+      <c r="BN1">
+        <v>57</v>
+      </c>
+      <c r="BO1">
+        <v>58</v>
+      </c>
+      <c r="BP1">
+        <v>59</v>
+      </c>
+      <c r="BQ1">
+        <v>60</v>
+      </c>
+      <c r="BR1">
+        <v>61</v>
+      </c>
+      <c r="BS1">
+        <v>62</v>
+      </c>
+      <c r="BT1">
+        <v>63</v>
+      </c>
+      <c r="BU1">
+        <v>64</v>
+      </c>
+      <c r="BV1">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4">
+        <f>VLOOKUP(C2,$A:$I,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>VLOOKUP(D2,$A:$I,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <f>I2-B2+1</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <f>MAX(E2:F2)+B2+G2</f>
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <f>IF(AND($H2&lt;=J$1,J$1&lt;=$I2),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:BN6" si="0">IF(AND($H2&lt;=K$1,K$1&lt;=$I2),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AY2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AZ2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BA2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BB2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BC2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BD2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BF2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BG2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BH2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BI2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BJ2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BK2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BL2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BM2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BN2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E13" si="1">VLOOKUP(C3,$A:$I,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F14" si="2">VLOOKUP(D3,$A:$I,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H13" si="3">I3-B3+1</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I13" si="4">MAX(E3:F3)+B3+G3</f>
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:Y16" si="5">IF(AND($H3&lt;=J$1,J$1&lt;=$I3),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AY3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AZ3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BA3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BB3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BC3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BD3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BF3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BG3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BH3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BI3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BJ3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BK3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BL3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BM3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BN3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AL4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AM4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AN4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AY4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AZ4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BA4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BB4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BC4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BD4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BF4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BG4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BH4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BI4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BJ4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BK4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BL4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BM4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BN4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AN5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AO5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AQ5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AR5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AS5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AT5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AU5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AV5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AW5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AX5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AY5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AZ5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BA5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BB5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BC5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BD5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BF5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BG5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BH5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BI5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BJ5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BK5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BL5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BM5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BN5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" ref="AP6:BE16" si="6">IF(AND($H6&lt;=AP$1,AP$1&lt;=$I6),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AR6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AS6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AT6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AU6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BC6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BD6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BE6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BF6" t="str">
+        <f t="shared" ref="BF6:BN16" si="7">IF(AND($H6&lt;=BF$1,BF$1&lt;=$I6),1,"")</f>
+        <v/>
+      </c>
+      <c r="BG6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BH6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BI6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BJ6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BK6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BL6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BM6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BN6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>3</v>
       </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" ref="Z7:AO16" si="8">IF(AND($H7&lt;=Z$1,Z$1&lt;=$I7),1,"")</f>
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AR7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AS7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AT7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AU7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BC7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BD7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BE7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BF7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BG7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BH7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BI7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BJ7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BK7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BL7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BM7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BN7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AK8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AR8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AS8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AT8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AU8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BC8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BD8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BE8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BF8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BG8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BH8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BI8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BJ8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BK8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BL8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BM8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BN8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>18</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AK9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AR9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AS9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AT9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AU9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BC9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BD9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BE9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BF9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BG9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BH9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BI9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BJ9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BK9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BL9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BM9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BN9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AR10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AS10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AT10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AU10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BC10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BD10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BE10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BF10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BG10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BH10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BI10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BJ10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BK10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BL10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BM10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BN10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>9</v>
       </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AU11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BC11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BD11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BE11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BF11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BG11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BH11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BI11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BJ11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BK11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BL11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BM11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BN11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>18</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AR12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AS12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AT12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AU12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BC12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BD12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BE12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BF12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BG12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BH12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BI12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BJ12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BK12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BL12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BM12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BN12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>11</v>
       </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AR13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AS13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AT13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AU13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BC13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BD13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BE13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BF13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BG13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BH13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BI13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BJ13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BK13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BL13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BM13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BN13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
       <c r="C14" s="1"/>
+      <c r="F14" s="4"/>
+      <c r="J14">
+        <f>SUM(J2:J13)</f>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:AY14" si="9">SUM(K2:K13)</f>
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AC14" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AD14" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AE14" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AF14" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AG14" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AH14" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AI14" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AJ14" s="8">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:BG13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>